--- a/insumos/produccion_petroleo_1999-2018.xlsx
+++ b/insumos/produccion_petroleo_1999-2018.xlsx
@@ -136,7 +136,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -146,6 +146,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,7 +173,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,25 +223,25 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>1879220.4718</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>921762.104</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>5354.39</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>26554404.0802</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>16267631.005</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <v>45628372.051</v>
       </c>
     </row>
@@ -248,25 +252,25 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>1858519.63596</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>1073664.864</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>10074.262</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>24276364.36904</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>16070142.68</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>43288765.811</v>
       </c>
     </row>
@@ -277,25 +281,25 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>2558985.959</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>1045547.108</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>7414.79</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>25147360.122</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>15857684.8</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <v>44616992.779</v>
       </c>
     </row>
@@ -306,25 +310,25 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>2560219.741</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>1074421.105</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>6851.7</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>24873383.493</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>15445705.704</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
         <v>43960581.743</v>
       </c>
     </row>
@@ -335,25 +339,25 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>2469938.41653</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>1308387.080911</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>0.908</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>23950343.4355402</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>15228384.542</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>42957054.3829812</v>
       </c>
     </row>
@@ -364,25 +368,25 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>2245976.7142</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>1248511.44502</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>22052765.9902</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>14885693.35874</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
         <v>40432947.50816</v>
       </c>
     </row>
@@ -393,25 +397,25 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>2340079.093</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>1157397.39443</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>20821865.62503</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>14253123.11485</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
         <v>38572465.2273099</v>
       </c>
     </row>
@@ -422,25 +426,25 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>2154081.2756</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>1102205.841</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>20911426.7874001</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>14178619.87</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
         <v>38346333.7740001</v>
       </c>
     </row>
@@ -451,25 +455,25 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>2085088.896</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>1079382.862</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
         <v>19793834.5373</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>14946261.065</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="n">
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
         <v>37904567.3603001</v>
       </c>
     </row>
@@ -480,25 +484,25 @@
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>1943237.12569901</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>1177420.43900385</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>21331.84085</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>19613237.6930013</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <v>14837718.9337459</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
         <v>37592946.0323</v>
       </c>
     </row>
@@ -509,25 +513,25 @@
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>1026675.1309</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>1207906.199</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>77886.16</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>19400899.5639999</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <v>14526574.178</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="n">
+      <c r="H12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="n">
         <v>36239941.2318999</v>
       </c>
     </row>
@@ -538,25 +542,25 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>964116.2006</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>1214177.9413</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>73480.81</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="3" t="n">
         <v>18771607.1027</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <v>14390033.7653</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="n">
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
         <v>35413415.8199</v>
       </c>
     </row>
@@ -567,25 +571,25 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>954410.636199999</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <v>1210401.8016</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="3" t="n">
         <v>73385.29</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="3" t="n">
         <v>17430257.0073</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="3" t="n">
         <v>13657823.9139</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="n">
+      <c r="H14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
         <v>33326278.649</v>
       </c>
     </row>
@@ -596,25 +600,25 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="3" t="n">
         <v>930690.9316</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="3" t="n">
         <v>1170918.75</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="3" t="n">
         <v>83451.33</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="3" t="n">
         <v>17941025.3339</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="3" t="n">
         <v>13013432.9248</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="n">
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
         <v>33139519.2703</v>
       </c>
     </row>
@@ -625,25 +629,25 @@
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="3" t="n">
         <v>844064.9203</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="3" t="n">
         <v>1128154.8281</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="3" t="n">
         <v>101952.249</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="3" t="n">
         <v>17309218.8428</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="3" t="n">
         <v>13077699.801</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="n">
+      <c r="H16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
         <v>32461090.6412</v>
       </c>
     </row>
@@ -654,25 +658,25 @@
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>902123.0444</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="3" t="n">
         <v>1098579.9032</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="3" t="n">
         <v>93262.502</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="3" t="n">
         <v>16779030.2192</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="3" t="n">
         <v>13105259.9662</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="n">
+      <c r="H17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="n">
         <v>31978255.635</v>
       </c>
     </row>
@@ -683,25 +687,25 @@
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="3" t="n">
         <v>1204989.3157</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="3" t="n">
         <v>1094372.344</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="3" t="n">
         <v>105990.42</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="3" t="n">
         <v>16625964.3401</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="3" t="n">
         <v>12960673.5601</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="n">
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
         <v>31991989.9799</v>
       </c>
     </row>
@@ -712,25 +716,25 @@
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>1253223.3561</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="3" t="n">
         <v>1060171.7188</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>126569.806</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="3" t="n">
         <v>16209610.9534</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="3" t="n">
         <v>12118817.5217</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="n">
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
         <v>30768393.356</v>
       </c>
     </row>
@@ -741,25 +745,25 @@
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="3" t="n">
         <v>1259181.5193</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="3" t="n">
         <v>1029192.0144</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="3" t="n">
         <v>125320.939</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="3" t="n">
         <v>15128247.6684</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="3" t="n">
         <v>11320528.2826</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="n">
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
         <v>28862470.4237</v>
       </c>
     </row>
@@ -770,25 +774,25 @@
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="3" t="n">
         <v>1319065.7001</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="3" t="n">
         <v>1067055.5364</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="3" t="n">
         <v>134583.915</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="3" t="n">
         <v>15822040.2825001</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="3" t="n">
         <v>11129796.6038</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="n">
+      <c r="H21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="n">
         <v>29472542.0378001</v>
       </c>
     </row>
